--- a/plate_maps/HNSCC_plate_map-version_id=OHSU_HNSCC_derm002.xlsx
+++ b/plate_maps/HNSCC_plate_map-version_id=OHSU_HNSCC_derm002.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Box Sync\McWeeney_Research\HNSCC\REANALYSIS\data\HNSCC_plate_maps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Documents\HNSCC_functional_data_pipeline\plate_maps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9892E583-C02F-49FE-BB44-8A9511ABE390}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AD09D1-4B69-4668-92B4-003C438C4AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="682" activeTab="2" xr2:uid="{C1ED41CA-66E0-46ED-9271-34351A74B062}"/>
+    <workbookView xWindow="0" yWindow="-220" windowWidth="19200" windowHeight="10420" tabRatio="682" xr2:uid="{C1ED41CA-66E0-46ED-9271-34351A74B062}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1198,6 +1199,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,12 +1216,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B089EA7C-EC34-4403-B5F0-9A04975C02A4}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4:O4"/>
     </sheetView>
   </sheetViews>
@@ -1546,232 +1547,232 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="14">
         <v>43662</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
     </row>
     <row r="4" spans="1:15" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
+      <c r="B7" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -1783,17 +1784,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B1:O1"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="B4:O4"/>
-    <mergeCell ref="B5:O5"/>
     <mergeCell ref="B9:O9"/>
     <mergeCell ref="B10:O10"/>
     <mergeCell ref="B11:O11"/>
     <mergeCell ref="B6:O6"/>
     <mergeCell ref="B7:O7"/>
     <mergeCell ref="B8:O8"/>
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B4:O4"/>
+    <mergeCell ref="B5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8949,8 +8950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18FAA9C-49DB-4785-B87A-E947963D7717}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="44" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="44" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13266,7 +13267,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="64" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14900,7 +14901,7 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="46" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:X10"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
